--- a/biology/Médecine/TMEM43/TMEM43.xlsx
+++ b/biology/Médecine/TMEM43/TMEM43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le TMEM43 (pour « Transmembrane protein 43 ») ou LUMA est une protéine nucléaire dont le gène est le TMEM43 situé sur le chromosome 3 humain.
 </t>
@@ -511,10 +523,12 @@
           <t>Structure et rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">il s'agit d'une protéine transmembranaire.
-Il se fixe aux lamines A et B et interagit avec l'émerine[5].
+Il se fixe aux lamines A et B et interagit avec l'émerine.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines mutations du gène sont responsables d'une forme de dystrophie musculaire d'Emery-Dreifuss[6]. D'autres provoquent une forme familiale de dysplasie ventriculaire droite arythmogène[7], avec un noyau cellulaire particulièrement rigide[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines mutations du gène sont responsables d'une forme de dystrophie musculaire d'Emery-Dreifuss. D'autres provoquent une forme familiale de dysplasie ventriculaire droite arythmogène, avec un noyau cellulaire particulièrement rigide.
 </t>
         </is>
       </c>
